--- a/utilities/logincredentials.xlsx
+++ b/utilities/logincredentials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EI12548\PycharmProjects\pythonProject\Webdriver\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EE0DAF-B81B-4A3F-8036-CEFAA50F69EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C578201-96F7-4209-B1CD-9E9AE1E52871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>bbc@gmail.com</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +442,7 @@
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -449,8 +452,11 @@
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -460,8 +466,11 @@
       <c r="C2">
         <v>9172379873</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -471,8 +480,11 @@
       <c r="C3">
         <v>8638761312</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -481,6 +493,9 @@
       </c>
       <c r="C4">
         <v>1263876767</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/logincredentials.xlsx
+++ b/utilities/logincredentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EI12548\PycharmProjects\pythonProject\Webdriver\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C578201-96F7-4209-B1CD-9E9AE1E52871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CAD38A-28F0-4258-A9F7-CD453A5FF921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69173E76-2F5F-4950-B278-411F5084D3C7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
